--- a/doc/resume.xlsx
+++ b/doc/resume.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,22 +19,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>16:30-17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives </t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>How to install, How to start, How to write program, command "print"</t>
+  </si>
+  <si>
+    <t>variables, calculate, command "if"</t>
+  </si>
+  <si>
+    <t>form, variables $_POST</t>
+  </si>
+  <si>
+    <t>form and HTML table</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>students presentation</t>
+  </si>
+  <si>
+    <t>prepare presentation</t>
+  </si>
+  <si>
+    <t>Database, phpMyAdmin</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>SQL command "select" from php</t>
+  </si>
+  <si>
+    <t>SQL command "insert", "update", "delete" from php</t>
+  </si>
+  <si>
+    <t>SQL command "create table" from php, datatype varchar, int, datetime</t>
+  </si>
+  <si>
+    <t>SQL datatype "blob" from php</t>
+  </si>
+  <si>
+    <t>file upload</t>
+  </si>
+  <si>
+    <t>form, input, textarea, select</t>
+  </si>
+  <si>
+    <t>1. Install PHP, Basic PHP</t>
+  </si>
+  <si>
+    <t>1.2. Basic PHP</t>
+  </si>
+  <si>
+    <t>2. PHP form</t>
+  </si>
+  <si>
+    <t>3. PHP form</t>
+  </si>
+  <si>
+    <t>4. PHP form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Futura"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,10 +132,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -57,8 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,120 +456,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43066</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43067</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43069</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43081</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/resume.xlsx
+++ b/doc/resume.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
